--- a/src/数控程序确认表.xlsx
+++ b/src/数控程序确认表.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\西航\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F2ADC-7E7F-4A16-A975-100FE4E2C3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="288" windowWidth="16872" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="7200" windowHeight="3615"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数控程序确认表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +167,10 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,10 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -245,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -280,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -457,250 +452,250 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="22.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/数控程序确认表.xlsx
+++ b/src/数控程序确认表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="7200" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="19395" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="数控程序确认表" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,7 +463,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -705,5 +705,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>